--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pcsk9-Vldlr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.00089730993601</v>
+        <v>0.1937183333333333</v>
       </c>
       <c r="H2">
-        <v>1.00089730993601</v>
+        <v>0.581155</v>
       </c>
       <c r="I2">
-        <v>0.5387551346362253</v>
+        <v>0.09282752788914908</v>
       </c>
       <c r="J2">
-        <v>0.5387551346362253</v>
+        <v>0.09282752788914908</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>11.4436197207072</v>
+        <v>0.1112246666666667</v>
       </c>
       <c r="N2">
-        <v>11.4436197207072</v>
+        <v>0.333674</v>
       </c>
       <c r="O2">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089436</v>
       </c>
       <c r="P2">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089434</v>
       </c>
       <c r="Q2">
-        <v>11.45388819438651</v>
+        <v>0.02154625705222222</v>
       </c>
       <c r="R2">
-        <v>11.45388819438651</v>
+        <v>0.19391631347</v>
       </c>
       <c r="S2">
-        <v>0.462022114452014</v>
+        <v>0.0007433034472795779</v>
       </c>
       <c r="T2">
-        <v>0.462022114452014</v>
+        <v>0.0007433034472795778</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +584,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.00089730993601</v>
+        <v>0.1937183333333333</v>
       </c>
       <c r="H3">
-        <v>1.00089730993601</v>
+        <v>0.581155</v>
       </c>
       <c r="I3">
-        <v>0.5387551346362253</v>
+        <v>0.09282752788914908</v>
       </c>
       <c r="J3">
-        <v>0.5387551346362253</v>
+        <v>0.09282752788914908</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.90056595894971</v>
+        <v>11.825228</v>
       </c>
       <c r="N3">
-        <v>1.90056595894971</v>
+        <v>35.475684</v>
       </c>
       <c r="O3">
-        <v>0.1424265222753237</v>
+        <v>0.851329675722</v>
       </c>
       <c r="P3">
-        <v>0.1424265222753237</v>
+        <v>0.8513296757219999</v>
       </c>
       <c r="Q3">
-        <v>1.902271355668718</v>
+        <v>2.290763459446667</v>
       </c>
       <c r="R3">
-        <v>1.902271355668718</v>
+        <v>20.61687113502</v>
       </c>
       <c r="S3">
-        <v>0.07673302018421133</v>
+        <v>0.0790268292159442</v>
       </c>
       <c r="T3">
-        <v>0.07673302018421133</v>
+        <v>0.07902682921594419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.215869672050875</v>
+        <v>0.1937183333333333</v>
       </c>
       <c r="H4">
-        <v>0.215869672050875</v>
+        <v>0.581155</v>
       </c>
       <c r="I4">
-        <v>0.1161966298391614</v>
+        <v>0.09282752788914908</v>
       </c>
       <c r="J4">
-        <v>0.1161966298391614</v>
+        <v>0.09282752788914908</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>11.4436197207072</v>
+        <v>0.03793733333333333</v>
       </c>
       <c r="N4">
-        <v>11.4436197207072</v>
+        <v>0.113812</v>
       </c>
       <c r="O4">
-        <v>0.8575734777246764</v>
+        <v>0.002731209722503793</v>
       </c>
       <c r="P4">
-        <v>0.8575734777246764</v>
+        <v>0.002731209722503793</v>
       </c>
       <c r="Q4">
-        <v>2.470330436183989</v>
+        <v>0.007349156984444443</v>
       </c>
       <c r="R4">
-        <v>2.470330436183989</v>
+        <v>0.06614241286</v>
       </c>
       <c r="S4">
-        <v>0.09964714795105656</v>
+        <v>0.0002535314466868359</v>
       </c>
       <c r="T4">
-        <v>0.09964714795105656</v>
+        <v>0.0002535314466868359</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.215869672050875</v>
+        <v>0.1937183333333333</v>
       </c>
       <c r="H5">
-        <v>0.215869672050875</v>
+        <v>0.581155</v>
       </c>
       <c r="I5">
-        <v>0.1161966298391614</v>
+        <v>0.09282752788914908</v>
       </c>
       <c r="J5">
-        <v>0.1161966298391614</v>
+        <v>0.09282752788914908</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.90056595894971</v>
+        <v>1.915914</v>
       </c>
       <c r="N5">
-        <v>1.90056595894971</v>
+        <v>5.747742000000001</v>
       </c>
       <c r="O5">
-        <v>0.1424265222753237</v>
+        <v>0.1379317544094067</v>
       </c>
       <c r="P5">
-        <v>0.1424265222753237</v>
+        <v>0.1379317544094067</v>
       </c>
       <c r="Q5">
-        <v>0.4102745502695306</v>
+        <v>0.37114766689</v>
       </c>
       <c r="R5">
-        <v>0.4102745502695306</v>
+        <v>3.34032900201</v>
       </c>
       <c r="S5">
-        <v>0.01654948188810486</v>
+        <v>0.01280386377923846</v>
       </c>
       <c r="T5">
-        <v>0.01654948188810486</v>
+        <v>0.01280386377923846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.641029344375423</v>
+        <v>1.001862333333333</v>
       </c>
       <c r="H6">
-        <v>0.641029344375423</v>
+        <v>3.005587</v>
       </c>
       <c r="I6">
-        <v>0.3450482355246133</v>
+        <v>0.4800805483317944</v>
       </c>
       <c r="J6">
-        <v>0.3450482355246133</v>
+        <v>0.4800805483317944</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>11.4436197207072</v>
+        <v>0.1112246666666667</v>
       </c>
       <c r="N6">
-        <v>11.4436197207072</v>
+        <v>0.333674</v>
       </c>
       <c r="O6">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089436</v>
       </c>
       <c r="P6">
-        <v>0.8575734777246764</v>
+        <v>0.008007360146089434</v>
       </c>
       <c r="Q6">
-        <v>7.335696046846598</v>
+        <v>0.1114318040708889</v>
       </c>
       <c r="R6">
-        <v>7.335696046846598</v>
+        <v>1.002886236638</v>
       </c>
       <c r="S6">
-        <v>0.2959042153216059</v>
+        <v>0.003844177849624773</v>
       </c>
       <c r="T6">
-        <v>0.2959042153216059</v>
+        <v>0.003844177849624772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.001862333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.005587</v>
+      </c>
+      <c r="I7">
+        <v>0.4800805483317944</v>
+      </c>
+      <c r="J7">
+        <v>0.4800805483317944</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>11.825228</v>
+      </c>
+      <c r="N7">
+        <v>35.475684</v>
+      </c>
+      <c r="O7">
+        <v>0.851329675722</v>
+      </c>
+      <c r="P7">
+        <v>0.8513296757219999</v>
+      </c>
+      <c r="Q7">
+        <v>11.84725051627867</v>
+      </c>
+      <c r="R7">
+        <v>106.625254646508</v>
+      </c>
+      <c r="S7">
+        <v>0.4087068175317465</v>
+      </c>
+      <c r="T7">
+        <v>0.4087068175317464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.001862333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.005587</v>
+      </c>
+      <c r="I8">
+        <v>0.4800805483317944</v>
+      </c>
+      <c r="J8">
+        <v>0.4800805483317944</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03793733333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.113812</v>
+      </c>
+      <c r="O8">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="P8">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="Q8">
+        <v>0.03800798529377777</v>
+      </c>
+      <c r="R8">
+        <v>0.342071867644</v>
+      </c>
+      <c r="S8">
+        <v>0.001311200661188749</v>
+      </c>
+      <c r="T8">
+        <v>0.001311200661188749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.001862333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.005587</v>
+      </c>
+      <c r="I9">
+        <v>0.4800805483317944</v>
+      </c>
+      <c r="J9">
+        <v>0.4800805483317944</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.915914</v>
+      </c>
+      <c r="N9">
+        <v>5.747742000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="P9">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="Q9">
+        <v>1.919482070506</v>
+      </c>
+      <c r="R9">
+        <v>17.275338634554</v>
+      </c>
+      <c r="S9">
+        <v>0.06621835228923437</v>
+      </c>
+      <c r="T9">
+        <v>0.06621835228923437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2201613333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.660484</v>
+      </c>
+      <c r="I10">
+        <v>0.1054986998827107</v>
+      </c>
+      <c r="J10">
+        <v>0.1054986998827107</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1112246666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.333674</v>
+      </c>
+      <c r="O10">
+        <v>0.008007360146089436</v>
+      </c>
+      <c r="P10">
+        <v>0.008007360146089434</v>
+      </c>
+      <c r="Q10">
+        <v>0.02448737091288889</v>
+      </c>
+      <c r="R10">
+        <v>0.220386338216</v>
+      </c>
+      <c r="S10">
+        <v>0.0008447660849050678</v>
+      </c>
+      <c r="T10">
+        <v>0.0008447660849050676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.641029344375423</v>
-      </c>
-      <c r="H7">
-        <v>0.641029344375423</v>
-      </c>
-      <c r="I7">
-        <v>0.3450482355246133</v>
-      </c>
-      <c r="J7">
-        <v>0.3450482355246133</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.90056595894971</v>
-      </c>
-      <c r="N7">
-        <v>1.90056595894971</v>
-      </c>
-      <c r="O7">
-        <v>0.1424265222753237</v>
-      </c>
-      <c r="P7">
-        <v>0.1424265222753237</v>
-      </c>
-      <c r="Q7">
-        <v>1.21831855060778</v>
-      </c>
-      <c r="R7">
-        <v>1.21831855060778</v>
-      </c>
-      <c r="S7">
-        <v>0.04914402020300746</v>
-      </c>
-      <c r="T7">
-        <v>0.04914402020300746</v>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2201613333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.660484</v>
+      </c>
+      <c r="I11">
+        <v>0.1054986998827107</v>
+      </c>
+      <c r="J11">
+        <v>0.1054986998827107</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.825228</v>
+      </c>
+      <c r="N11">
+        <v>35.475684</v>
+      </c>
+      <c r="O11">
+        <v>0.851329675722</v>
+      </c>
+      <c r="P11">
+        <v>0.8513296757219999</v>
+      </c>
+      <c r="Q11">
+        <v>2.603457963450667</v>
+      </c>
+      <c r="R11">
+        <v>23.431121671056</v>
+      </c>
+      <c r="S11">
+        <v>0.0898141739602407</v>
+      </c>
+      <c r="T11">
+        <v>0.08981417396024069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2201613333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.660484</v>
+      </c>
+      <c r="I12">
+        <v>0.1054986998827107</v>
+      </c>
+      <c r="J12">
+        <v>0.1054986998827107</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03793733333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.113812</v>
+      </c>
+      <c r="O12">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="P12">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="Q12">
+        <v>0.008352333889777776</v>
+      </c>
+      <c r="R12">
+        <v>0.07517100500799999</v>
+      </c>
+      <c r="S12">
+        <v>0.0002881390748311692</v>
+      </c>
+      <c r="T12">
+        <v>0.0002881390748311692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2201613333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.660484</v>
+      </c>
+      <c r="I13">
+        <v>0.1054986998827107</v>
+      </c>
+      <c r="J13">
+        <v>0.1054986998827107</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.915914</v>
+      </c>
+      <c r="N13">
+        <v>5.747742000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="P13">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="Q13">
+        <v>0.421810180792</v>
+      </c>
+      <c r="R13">
+        <v>3.796291627128</v>
+      </c>
+      <c r="S13">
+        <v>0.01455162076273376</v>
+      </c>
+      <c r="T13">
+        <v>0.01455162076273376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.671121</v>
+      </c>
+      <c r="H14">
+        <v>2.013363</v>
+      </c>
+      <c r="I14">
+        <v>0.3215932238963458</v>
+      </c>
+      <c r="J14">
+        <v>0.3215932238963458</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1112246666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.333674</v>
+      </c>
+      <c r="O14">
+        <v>0.008007360146089436</v>
+      </c>
+      <c r="P14">
+        <v>0.008007360146089434</v>
+      </c>
+      <c r="Q14">
+        <v>0.07464520951800001</v>
+      </c>
+      <c r="R14">
+        <v>0.6718068856620001</v>
+      </c>
+      <c r="S14">
+        <v>0.002575112764280016</v>
+      </c>
+      <c r="T14">
+        <v>0.002575112764280016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.671121</v>
+      </c>
+      <c r="H15">
+        <v>2.013363</v>
+      </c>
+      <c r="I15">
+        <v>0.3215932238963458</v>
+      </c>
+      <c r="J15">
+        <v>0.3215932238963458</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.825228</v>
+      </c>
+      <c r="N15">
+        <v>35.475684</v>
+      </c>
+      <c r="O15">
+        <v>0.851329675722</v>
+      </c>
+      <c r="P15">
+        <v>0.8513296757219999</v>
+      </c>
+      <c r="Q15">
+        <v>7.936158840588</v>
+      </c>
+      <c r="R15">
+        <v>71.42542956529201</v>
+      </c>
+      <c r="S15">
+        <v>0.2737818550140687</v>
+      </c>
+      <c r="T15">
+        <v>0.2737818550140686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.671121</v>
+      </c>
+      <c r="H16">
+        <v>2.013363</v>
+      </c>
+      <c r="I16">
+        <v>0.3215932238963458</v>
+      </c>
+      <c r="J16">
+        <v>0.3215932238963458</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03793733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.113812</v>
+      </c>
+      <c r="O16">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="P16">
+        <v>0.002731209722503793</v>
+      </c>
+      <c r="Q16">
+        <v>0.025460541084</v>
+      </c>
+      <c r="R16">
+        <v>0.229144869756</v>
+      </c>
+      <c r="S16">
+        <v>0.0008783385397970388</v>
+      </c>
+      <c r="T16">
+        <v>0.0008783385397970388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.671121</v>
+      </c>
+      <c r="H17">
+        <v>2.013363</v>
+      </c>
+      <c r="I17">
+        <v>0.3215932238963458</v>
+      </c>
+      <c r="J17">
+        <v>0.3215932238963458</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.915914</v>
+      </c>
+      <c r="N17">
+        <v>5.747742000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="P17">
+        <v>0.1379317544094067</v>
+      </c>
+      <c r="Q17">
+        <v>1.285810119594</v>
+      </c>
+      <c r="R17">
+        <v>11.572291076346</v>
+      </c>
+      <c r="S17">
+        <v>0.04435791757820012</v>
+      </c>
+      <c r="T17">
+        <v>0.04435791757820012</v>
       </c>
     </row>
   </sheetData>
